--- a/Leaderboards/ME3MP-TCHOF-OutlierSoloSeries.xlsx
+++ b/Leaderboards/ME3MP-TCHOF-OutlierSoloSeries.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MEHOF\Leaderboards\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D7EF3A-E4F9-41B7-8338-BFEBED007A03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970C0739-0876-4113-8AB0-45C67A7138F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27885" windowHeight="18240" xr2:uid="{EC2FB41B-C235-4939-9B29-834639605DAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="18240" xr2:uid="{EC2FB41B-C235-4939-9B29-834639605DAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Gold" sheetId="3" r:id="rId1"/>
@@ -26,7 +21,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,12 +35,6 @@
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{009A2E8F-861D-452B-9139-782FD0B955C4}" keepAlive="1" name="Query - Gold" description="Connection to the 'Gold' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Gold;Extended Properties=&quot;&quot;" command="SELECT * FROM [Gold]"/>
-  </connection>
-  <connection id="2" xr16:uid="{3F6B5212-85CA-45F0-8F4A-0A16EF1AD492}" keepAlive="1" name="Query - PlayerRuns" description="Connection to the 'PlayerRuns' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=PlayerRuns;Extended Properties=&quot;&quot;" command="SELECT * FROM [PlayerRuns]"/>
-  </connection>
-  <connection id="3" xr16:uid="{DC085E0F-833D-409A-8CE3-57D3538A3462}" keepAlive="1" name="Query - RunsByPlayerFilePath" description="Connection to the 'RunsByPlayerFilePath' query in the workbook." type="5" refreshedVersion="0" background="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=RunsByPlayerFilePath;Extended Properties=&quot;&quot;" command="SELECT * FROM [RunsByPlayerFilePath]"/>
   </connection>
 </connections>
 </file>
